--- a/data/curriculum_graduate.xlsx
+++ b/data/curriculum_graduate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunjinsong/Library/CloudStorage/Dropbox/0. 학부장 업무/학부홈페이지 개편/홈페이지 개편 시안/INDEX/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C288CE-27B3-2D4D-B7BB-19BE40D39086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC3F3E-6F75-2E4A-AECF-40D299B1DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55680" yWindow="1600" windowWidth="24660" windowHeight="19960" activeTab="1" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
+    <workbookView xWindow="2940" yWindow="9280" windowWidth="29520" windowHeight="20200" activeTab="1" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
   <si>
     <t>종별</t>
   </si>
@@ -378,14 +378,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>커뮤니케이션하는뇌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니케이션연구워크샵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -406,14 +398,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미디어법제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI와사회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빌201</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -422,31 +406,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>커뮤니케이션조사방법1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니케이션이론1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용분석세미나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기초통계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>디지털마케팅연구</t>
+    <t>커뮤니케이션이론I</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>커뮤니케이션텍스트분석</t>
+    <t>조사방법론I</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저널리즘세미나</t>
+    <t>광고이론연구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인저널리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴미디어심리학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조방정식모형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌302</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴미디어와사회II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고와사회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -984,7 +984,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2827,15 +2827,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB231238-78A9-E54C-808E-E7D7DF578189}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K8" sqref="K8:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="C1" t="s">
         <v>108</v>
       </c>
@@ -2843,57 +2843,63 @@
         <v>108</v>
       </c>
       <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="C2" t="s">
         <v>114</v>
       </c>
-      <c r="K1" t="s">
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" t="s">
-        <v>112</v>
-      </c>
       <c r="K2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="24">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -2901,11 +2907,8 @@
         <v>99</v>
       </c>
       <c r="C3" s="42"/>
-      <c r="I3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="24">
+    </row>
+    <row r="4" spans="1:12" ht="24">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -2914,19 +2917,16 @@
       </c>
       <c r="C4" s="42"/>
       <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24">
+    <row r="5" spans="1:12" ht="24">
       <c r="A5" s="39">
         <v>3</v>
       </c>
@@ -2935,19 +2935,16 @@
       </c>
       <c r="C5" s="42"/>
       <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24">
+    <row r="6" spans="1:12" ht="24">
       <c r="A6" s="39">
         <v>4</v>
       </c>
@@ -2956,16 +2953,16 @@
       </c>
       <c r="C6" s="42"/>
       <c r="E6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24">
+    <row r="7" spans="1:12" ht="24">
       <c r="A7" s="39">
         <v>5</v>
       </c>
@@ -2973,8 +2970,14 @@
         <v>103</v>
       </c>
       <c r="C7" s="42"/>
-    </row>
-    <row r="8" spans="1:11" ht="24">
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24">
       <c r="A8" s="39">
         <v>6</v>
       </c>
@@ -2982,86 +2985,86 @@
         <v>104</v>
       </c>
       <c r="C8" s="42"/>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
       <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
         <v>124</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s">
         <v>117</v>
       </c>
-      <c r="H8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24">
+    </row>
+    <row r="9" spans="1:12" ht="24">
       <c r="A9" s="39">
         <v>7</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
+      <c r="E9" t="s">
+        <v>120</v>
       </c>
       <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
         <v>124</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" t="s">
         <v>117</v>
       </c>
-      <c r="H9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="24">
+    </row>
+    <row r="10" spans="1:12" ht="24">
       <c r="A10" s="39">
         <v>8</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
         <v>124</v>
       </c>
-      <c r="G10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24">
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24">
       <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
       <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/curriculum_graduate.xlsx
+++ b/data/curriculum_graduate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunjinsong/Library/CloudStorage/Dropbox/0. 학부장 업무/학부홈페이지 개편/홈페이지 개편 시안/INDEX/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/revelunt/Library/CloudStorage/Dropbox/0. 학부장 업무/학부홈페이지 개편/홈페이지 개편 시안/INDEX/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC3F3E-6F75-2E4A-AECF-40D299B1DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86622CBC-46DC-FB4C-91C0-D3374882CAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="9280" windowWidth="29520" windowHeight="20200" activeTab="1" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
+    <workbookView xWindow="14080" yWindow="3640" windowWidth="29520" windowHeight="20200" activeTab="1" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="127">
   <si>
     <t>종별</t>
   </si>
@@ -430,10 +430,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구조방정식모형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빌302</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -447,6 +443,10 @@
   </si>
   <si>
     <t>광고와사회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -455,13 +455,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -475,7 +475,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -551,10 +551,16 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="함초롬바탕"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="9">
@@ -607,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -825,6 +831,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -833,7 +852,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,7 +883,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -905,7 +924,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -921,7 +940,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -941,11 +960,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -987,13 +1006,61 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{967C6097-E765-AA47-AAE7-2C834FEA7F0E}"/>
     <cellStyle name="표준 2 2" xfId="2" xr:uid="{F60A35B3-DBAC-EA4E-A552-2D47C30D1C57}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="함초롬바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1336,7 +1403,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
+      <numFmt numFmtId="164" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1478,30 +1545,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47616360-7401-1247-BBB8-2A037B680ECE}" name="표1" displayName="표1" ref="A1:L36" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47616360-7401-1247-BBB8-2A037B680ECE}" name="표1" displayName="표1" ref="A1:M36" totalsRowShown="0" dataDxfId="13" tableBorderDxfId="12">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L36">
     <sortCondition ref="B2:B36"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{418175B6-DA01-4449-A0DF-08808457DDB1}" name="종별" dataDxfId="10" dataCellStyle="표준 2 2"/>
-    <tableColumn id="2" xr3:uid="{E465CE6E-57B0-E54E-BCE9-2644B041B235}" name="학정번호" dataDxfId="9" dataCellStyle="표준 2 2"/>
-    <tableColumn id="3" xr3:uid="{5E53482A-2091-2A49-A29C-FD7DC7806112}" name="학점" dataDxfId="8" dataCellStyle="표준 2 2"/>
-    <tableColumn id="4" xr3:uid="{47787DD4-3894-EA44-AE77-7D43FFF0C152}" name="교과목명" dataDxfId="7" dataCellStyle="표준 2 2"/>
-    <tableColumn id="9" xr3:uid="{61C40EE3-A1EE-7B49-8A7D-1ADCED5D81BA}" name="2022-1" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{C2FBE0A8-1CCD-0D4D-8BAB-9900832FF752}" name="2022-2" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{6852FBE2-C9CE-1647-A1AD-5D8DAF6BEF86}" name="2023-1" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{870528FE-26E3-B54F-98A2-A79E4B954AE0}" name="2023-2" dataDxfId="3"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{418175B6-DA01-4449-A0DF-08808457DDB1}" name="종별" dataDxfId="11" dataCellStyle="표준 2 2"/>
+    <tableColumn id="2" xr3:uid="{E465CE6E-57B0-E54E-BCE9-2644B041B235}" name="학정번호" dataDxfId="10" dataCellStyle="표준 2 2"/>
+    <tableColumn id="3" xr3:uid="{5E53482A-2091-2A49-A29C-FD7DC7806112}" name="학점" dataDxfId="9" dataCellStyle="표준 2 2"/>
+    <tableColumn id="4" xr3:uid="{47787DD4-3894-EA44-AE77-7D43FFF0C152}" name="교과목명" dataDxfId="8" dataCellStyle="표준 2 2"/>
+    <tableColumn id="9" xr3:uid="{61C40EE3-A1EE-7B49-8A7D-1ADCED5D81BA}" name="2022-1" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{C2FBE0A8-1CCD-0D4D-8BAB-9900832FF752}" name="2022-2" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{6852FBE2-C9CE-1647-A1AD-5D8DAF6BEF86}" name="2023-1" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{870528FE-26E3-B54F-98A2-A79E4B954AE0}" name="2023-2" dataDxfId="4"/>
     <tableColumn id="13" xr3:uid="{BB74E611-12C2-4743-82A7-37640962B3E6}" name="2024-1"/>
-    <tableColumn id="14" xr3:uid="{9599F12D-37B1-D34F-8A0B-0F0D0C72BC5F}" name="2024-2" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{A11BDAD2-CB93-7344-8E43-1C70BD4E4DA4}" name="2025-1" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{D7D73BD8-B013-0443-94CA-ED095DBE217B}" name="2025-2" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{9599F12D-37B1-D34F-8A0B-0F0D0C72BC5F}" name="2024-2" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{A11BDAD2-CB93-7344-8E43-1C70BD4E4DA4}" name="2025-1" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{D7D73BD8-B013-0443-94CA-ED095DBE217B}" name="2025-2" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7F59C538-23CB-084C-A31C-5ABE57C9DBD3}" name="2026-1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1817,18 +1885,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91807FF8-03B3-1844-BD16-33C96DBD8A94}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1865,8 +1933,11 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -1895,8 +1966,9 @@
       <c r="L2" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1919,8 +1991,9 @@
       <c r="J3" s="11"/>
       <c r="K3" s="7"/>
       <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1949,8 +2022,9 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -1973,8 +2047,9 @@
       <c r="L5" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
@@ -1997,8 +2072,9 @@
       <c r="L6" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="26" t="s">
         <v>17</v>
       </c>
@@ -2035,8 +2111,11 @@
       <c r="L7" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
@@ -2073,8 +2152,11 @@
       <c r="L8" s="35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
@@ -2101,8 +2183,9 @@
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -2129,8 +2212,9 @@
         <v>29</v>
       </c>
       <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="22" t="s">
         <v>15</v>
       </c>
@@ -2155,8 +2239,9 @@
       <c r="J11" s="16"/>
       <c r="K11" s="17"/>
       <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
@@ -2181,8 +2266,11 @@
         <v>14</v>
       </c>
       <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
@@ -2205,8 +2293,9 @@
       <c r="J13" s="11"/>
       <c r="K13" s="7"/>
       <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
@@ -2235,8 +2324,9 @@
       <c r="L14" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
@@ -2265,8 +2355,11 @@
         <v>27</v>
       </c>
       <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="26" t="s">
         <v>17</v>
       </c>
@@ -2303,8 +2396,11 @@
       <c r="L16" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="22" t="s">
         <v>15</v>
       </c>
@@ -2327,8 +2423,9 @@
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="43"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="22" t="s">
         <v>15</v>
       </c>
@@ -2353,8 +2450,9 @@
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="22" t="s">
         <v>15</v>
       </c>
@@ -2385,8 +2483,11 @@
         <v>23</v>
       </c>
       <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="22" t="s">
         <v>15</v>
       </c>
@@ -2413,8 +2514,9 @@
       <c r="L20" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="43"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="22" t="s">
         <v>15</v>
       </c>
@@ -2437,8 +2539,9 @@
       <c r="J21" s="16"/>
       <c r="K21" s="17"/>
       <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="43"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="22" t="s">
         <v>15</v>
       </c>
@@ -2463,8 +2566,9 @@
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="22" t="s">
         <v>15</v>
       </c>
@@ -2489,8 +2593,9 @@
       <c r="L23" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="22" t="s">
         <v>15</v>
       </c>
@@ -2517,8 +2622,9 @@
       <c r="J24" s="16"/>
       <c r="K24" s="17"/>
       <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="22" t="s">
         <v>15</v>
       </c>
@@ -2545,8 +2651,9 @@
         <v>26</v>
       </c>
       <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="43"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="22" t="s">
         <v>15</v>
       </c>
@@ -2569,8 +2676,11 @@
       <c r="J26" s="11"/>
       <c r="K26" s="7"/>
       <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="22" t="s">
         <v>15</v>
       </c>
@@ -2595,8 +2705,9 @@
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="43"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="22" t="s">
         <v>15</v>
       </c>
@@ -2619,8 +2730,11 @@
       <c r="J28" s="16"/>
       <c r="K28" s="17"/>
       <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="22" t="s">
         <v>15</v>
       </c>
@@ -2643,8 +2757,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="7"/>
       <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="43"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="22" t="s">
         <v>15</v>
       </c>
@@ -2669,8 +2784,11 @@
         <v>30</v>
       </c>
       <c r="L30" s="16"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="22" t="s">
         <v>15</v>
       </c>
@@ -2693,8 +2811,9 @@
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="16"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="43"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="22" t="s">
         <v>15</v>
       </c>
@@ -2719,8 +2838,9 @@
       <c r="L32" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="43"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="22" t="s">
         <v>15</v>
       </c>
@@ -2743,8 +2863,11 @@
         <v>18</v>
       </c>
       <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="22" t="s">
         <v>15</v>
       </c>
@@ -2767,8 +2890,9 @@
         <v>25</v>
       </c>
       <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="43"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="22" t="s">
         <v>15</v>
       </c>
@@ -2791,8 +2915,9 @@
         <v>20</v>
       </c>
       <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="43"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="22" t="s">
         <v>15</v>
       </c>
@@ -2815,6 +2940,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="16"/>
+      <c r="M36" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2830,10 +2956,10 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K10"/>
+      <selection activeCell="C4" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="C1" t="s">
@@ -2887,7 +3013,7 @@
         <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
         <v>115</v>
@@ -2899,7 +3025,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24">
+    <row r="3" spans="1:12" ht="23">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -2908,61 +3034,58 @@
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" spans="1:12" ht="24">
+    <row r="4" spans="1:12" ht="23">
       <c r="A4" s="39">
         <v>2</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="E4" t="s">
-        <v>122</v>
+      <c r="C4" t="s">
+        <v>116</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="23">
       <c r="A5" s="39">
         <v>3</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="E5" t="s">
-        <v>122</v>
+      <c r="C5" t="s">
+        <v>116</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="23">
       <c r="A6" s="39">
         <v>4</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="E6" t="s">
-        <v>122</v>
+      <c r="C6" t="s">
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="23">
       <c r="A7" s="39">
         <v>5</v>
       </c>
@@ -2977,7 +3100,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="24">
+    <row r="8" spans="1:12" ht="23">
       <c r="A8" s="39">
         <v>6</v>
       </c>
@@ -2991,11 +3114,8 @@
       <c r="G8" t="s">
         <v>119</v>
       </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
         <v>121</v>
@@ -3004,7 +3124,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="24">
+    <row r="9" spans="1:12" ht="23">
       <c r="A9" s="39">
         <v>7</v>
       </c>
@@ -3020,11 +3140,8 @@
       <c r="G9" t="s">
         <v>119</v>
       </c>
-      <c r="H9" t="s">
-        <v>116</v>
-      </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
         <v>121</v>
@@ -3033,7 +3150,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24">
+    <row r="10" spans="1:12" ht="23">
       <c r="A10" s="39">
         <v>8</v>
       </c>
@@ -3046,17 +3163,14 @@
       <c r="G10" t="s">
         <v>119</v>
       </c>
-      <c r="H10" t="s">
-        <v>116</v>
-      </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24">
+    <row r="11" spans="1:12" ht="23">
       <c r="A11" s="41">
         <v>9</v>
       </c>
